--- a/DMSNewVSale_2025-12-09_11-44.xlsx
+++ b/DMSNewVSale_2025-12-09_11-44.xlsx
@@ -207,6 +207,18 @@
   </si>
   <si>
     <t>50.0000</t>
+  </si>
+  <si>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
   </si>
   <si>
     <t>Tuesday, 9 December, 2025 11:44 AM</t>
@@ -1342,41 +1354,74 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" ht="26.25" customHeight="1">
-      <c r="N22" s="13">
-        <v>880.27999999999997</v>
-      </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>66</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
         <v>67</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>52</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>68</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="N23" s="13">
+        <v>970.27999999999997</v>
+      </c>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>70</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>71</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>72</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1460,10 +1505,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
